--- a/REGULAR/JAVIER, CARMELITA M..xlsx
+++ b/REGULAR/JAVIER, CARMELITA M..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CENRO-HSKB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC465F4F-AF2D-468C-836B-F4D7CAF60329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="287">
   <si>
     <t>PERIOD</t>
   </si>
@@ -892,12 +891,15 @@
   </si>
   <si>
     <t>12/28,29/2022</t>
+  </si>
+  <si>
+    <t>BDAY 4/17/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1589,25 +1591,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K586" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K586" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1914,33 +1916,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A508" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B517" sqref="B517"/>
+      <pane ySplit="4425" topLeftCell="A511" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B519" sqref="B519"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +1963,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +1981,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +2001,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2007,7 +2009,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2020,7 +2022,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2037,7 +2039,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2081,7 +2083,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.065000000000026</v>
+        <v>58.315000000000026</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2091,12 +2093,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.749999999999972</v>
+        <v>72.999999999999972</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>55</v>
       </c>
@@ -2118,7 +2120,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35582</v>
       </c>
@@ -2138,7 +2140,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35612</v>
       </c>
@@ -2158,7 +2160,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35643</v>
       </c>
@@ -2178,7 +2180,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35674</v>
       </c>
@@ -2198,7 +2200,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35704</v>
       </c>
@@ -2218,7 +2220,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35735</v>
       </c>
@@ -2238,7 +2240,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35765</v>
       </c>
@@ -2258,7 +2260,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -2276,7 +2278,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35796</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>36176</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35827</v>
       </c>
@@ -2322,7 +2324,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35855</v>
       </c>
@@ -2342,7 +2344,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35886</v>
       </c>
@@ -2362,7 +2364,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35916</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>46</v>
@@ -2407,7 +2409,7 @@
         <v>36295</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35947</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>36312</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35977</v>
       </c>
@@ -2453,7 +2455,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36008</v>
       </c>
@@ -2475,7 +2477,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36023</v>
       </c>
@@ -2495,7 +2497,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36039</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>50</v>
@@ -2540,7 +2542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36069</v>
       </c>
@@ -2564,7 +2566,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36100</v>
       </c>
@@ -2584,7 +2586,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36130</v>
       </c>
@@ -2608,7 +2610,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>45</v>
       </c>
@@ -2626,7 +2628,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36161</v>
       </c>
@@ -2646,7 +2648,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36192</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36220</v>
       </c>
@@ -2686,7 +2688,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36251</v>
       </c>
@@ -2706,7 +2708,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36281</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -2751,7 +2753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>57</v>
@@ -2770,7 +2772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36312</v>
       </c>
@@ -2796,7 +2798,7 @@
         <v>36331</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36342</v>
       </c>
@@ -2816,7 +2818,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36373</v>
       </c>
@@ -2842,7 +2844,7 @@
         <v>36393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36404</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>36438</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -2887,7 +2889,7 @@
         <v>36443</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36434</v>
       </c>
@@ -2907,7 +2909,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36465</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -2952,7 +2954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36495</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>62</v>
@@ -2998,7 +3000,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>66</v>
       </c>
@@ -3016,7 +3018,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36526</v>
       </c>
@@ -3036,7 +3038,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36557</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>36561</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>47</v>
@@ -3081,7 +3083,7 @@
         <v>36563</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36586</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36617</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>67</v>
@@ -3152,7 +3154,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36647</v>
       </c>
@@ -3178,7 +3180,7 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>68</v>
@@ -3197,7 +3199,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36678</v>
       </c>
@@ -3217,7 +3219,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36708</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>72</v>
@@ -3260,7 +3262,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36739</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>36747</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36770</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36800</v>
       </c>
@@ -3332,7 +3334,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36831</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36861</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>76</v>
       </c>
@@ -3402,7 +3404,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36892</v>
       </c>
@@ -3428,7 +3430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>49</v>
@@ -3447,7 +3449,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36923</v>
       </c>
@@ -3467,7 +3469,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36951</v>
       </c>
@@ -3487,7 +3489,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36982</v>
       </c>
@@ -3507,7 +3509,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37012</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>79</v>
@@ -3552,7 +3554,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>80</v>
@@ -3569,7 +3571,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37043</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37073</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>82</v>
@@ -3640,7 +3642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37104</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37135</v>
       </c>
@@ -3686,7 +3688,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37165</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>37192</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37196</v>
       </c>
@@ -3738,7 +3740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37226</v>
       </c>
@@ -3758,7 +3760,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -3776,7 +3778,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37257</v>
       </c>
@@ -3800,7 +3802,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37288</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37316</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37347</v>
       </c>
@@ -3870,7 +3872,7 @@
         <v>37362</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37377</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37408</v>
       </c>
@@ -3922,7 +3924,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37438</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
@@ -3967,7 +3969,7 @@
         <v>37467</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37469</v>
       </c>
@@ -3993,7 +3995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37500</v>
       </c>
@@ -4019,7 +4021,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37530</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>37562</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37561</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>37583</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37591</v>
       </c>
@@ -4091,7 +4093,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>101</v>
       </c>
@@ -4109,7 +4111,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37622</v>
       </c>
@@ -4129,7 +4131,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37653</v>
       </c>
@@ -4149,7 +4151,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37681</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>37693</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4194,7 +4196,7 @@
         <v>37716</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37712</v>
       </c>
@@ -4220,7 +4222,7 @@
         <v>37727</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37742</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>37744</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37773</v>
       </c>
@@ -4266,7 +4268,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37803</v>
       </c>
@@ -4292,7 +4294,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -4311,7 +4313,7 @@
         <v>37824</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>56</v>
@@ -4330,7 +4332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37834</v>
       </c>
@@ -4356,7 +4358,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37865</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>47</v>
@@ -4401,7 +4403,7 @@
         <v>37888</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37895</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4446,7 +4448,7 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37926</v>
       </c>
@@ -4466,7 +4468,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37956</v>
       </c>
@@ -4486,7 +4488,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>106</v>
       </c>
@@ -4504,7 +4506,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37987</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38018</v>
       </c>
@@ -4556,7 +4558,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38047</v>
       </c>
@@ -4582,7 +4584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>111</v>
@@ -4603,7 +4605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38078</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>113</v>
@@ -4648,7 +4650,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38108</v>
       </c>
@@ -4668,7 +4670,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38139</v>
       </c>
@@ -4688,7 +4690,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38169</v>
       </c>
@@ -4708,7 +4710,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38200</v>
       </c>
@@ -4728,7 +4730,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38231</v>
       </c>
@@ -4748,7 +4750,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38261</v>
       </c>
@@ -4768,7 +4770,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38292</v>
       </c>
@@ -4788,7 +4790,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38322</v>
       </c>
@@ -4808,7 +4810,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>117</v>
       </c>
@@ -4826,7 +4828,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38353</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>118</v>
@@ -4867,7 +4869,7 @@
         <v>38383</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38384</v>
       </c>
@@ -4893,7 +4895,7 @@
         <v>38399</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38412</v>
       </c>
@@ -4919,7 +4921,7 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>120</v>
@@ -4938,7 +4940,7 @@
         <v>38443</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>121</v>
@@ -4955,7 +4957,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38443</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>120</v>
@@ -5000,7 +5002,7 @@
         <v>38469</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -5019,7 +5021,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -5038,7 +5040,7 @@
         <v>38470</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38473</v>
       </c>
@@ -5064,7 +5066,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38504</v>
       </c>
@@ -5090,7 +5092,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -5109,7 +5111,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38534</v>
       </c>
@@ -5135,7 +5137,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>52</v>
@@ -5154,7 +5156,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38565</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38596</v>
       </c>
@@ -5206,7 +5208,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>120</v>
@@ -5225,7 +5227,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>46</v>
@@ -5244,7 +5246,7 @@
         <v>38618</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38626</v>
       </c>
@@ -5270,7 +5272,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38657</v>
       </c>
@@ -5296,7 +5298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>127</v>
@@ -5315,7 +5317,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38687</v>
       </c>
@@ -5335,7 +5337,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>131</v>
       </c>
@@ -5353,7 +5355,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38718</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>81</v>
@@ -5398,7 +5400,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>132</v>
@@ -5415,7 +5417,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38749</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -5458,7 +5460,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38777</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>38797</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>46</v>
@@ -5501,7 +5503,7 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38808</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>38824</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38838</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>56</v>
@@ -5572,7 +5574,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>136</v>
@@ -5591,7 +5593,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38869</v>
       </c>
@@ -5613,7 +5615,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38899</v>
       </c>
@@ -5637,7 +5639,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38930</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5683,7 +5685,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38961</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>137</v>
@@ -5729,7 +5731,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38991</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>46</v>
@@ -5779,7 +5781,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39022</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>39076</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>138</v>
@@ -5825,7 +5827,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39052</v>
       </c>
@@ -5849,7 +5851,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>144</v>
       </c>
@@ -5867,7 +5869,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39083</v>
       </c>
@@ -5891,7 +5893,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39114</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>39116</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>118</v>
@@ -5934,7 +5936,7 @@
         <v>39119</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39142</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39173</v>
       </c>
@@ -5988,7 +5990,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39203</v>
       </c>
@@ -6016,7 +6018,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>118</v>
@@ -6033,7 +6035,7 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39234</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39264</v>
       </c>
@@ -6079,7 +6081,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39295</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>52</v>
@@ -6124,7 +6126,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39326</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39356</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39387</v>
       </c>
@@ -6202,7 +6204,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>46</v>
@@ -6221,7 +6223,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39417</v>
       </c>
@@ -6241,7 +6243,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
         <v>150</v>
       </c>
@@ -6259,7 +6261,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39448</v>
       </c>
@@ -6279,7 +6281,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39479</v>
       </c>
@@ -6299,7 +6301,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39508</v>
       </c>
@@ -6319,7 +6321,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39539</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>118</v>
@@ -6360,7 +6362,7 @@
         <v>39554</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39569</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -6403,7 +6405,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>39600</v>
       </c>
@@ -6427,7 +6429,7 @@
         <v>39619</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39630</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39661</v>
       </c>
@@ -6479,7 +6481,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>39692</v>
       </c>
@@ -6505,7 +6507,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39722</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39753</v>
       </c>
@@ -6551,7 +6553,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39783</v>
       </c>
@@ -6571,7 +6573,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="48" t="s">
         <v>155</v>
       </c>
@@ -6589,7 +6591,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39814</v>
       </c>
@@ -6609,7 +6611,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39845</v>
       </c>
@@ -6633,7 +6635,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>39873</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39904</v>
       </c>
@@ -6685,7 +6687,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>157</v>
@@ -6702,7 +6704,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39934</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>39983</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>158</v>
@@ -6743,7 +6745,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39965</v>
       </c>
@@ -6769,7 +6771,7 @@
         <v>39973</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>159</v>
@@ -6786,7 +6788,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39995</v>
       </c>
@@ -6812,7 +6814,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -6831,7 +6833,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>46</v>
@@ -6850,7 +6852,7 @@
         <v>40017</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>46</v>
@@ -6869,7 +6871,7 @@
         <v>40022</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -6888,7 +6890,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>160</v>
@@ -6905,7 +6907,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40026</v>
       </c>
@@ -6929,7 +6931,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40057</v>
       </c>
@@ -6955,7 +6957,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>166</v>
@@ -6972,7 +6974,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40087</v>
       </c>
@@ -6998,7 +7000,7 @@
         <v>40092</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>133</v>
@@ -7017,7 +7019,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>46</v>
@@ -7036,7 +7038,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7053,7 +7055,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40118</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>168</v>
@@ -7096,7 +7098,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40148</v>
       </c>
@@ -7120,7 +7122,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>172</v>
       </c>
@@ -7138,7 +7140,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>40179</v>
       </c>
@@ -7166,7 +7168,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>173</v>
@@ -7183,7 +7185,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40210</v>
       </c>
@@ -7207,7 +7209,7 @@
         <v>40235</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>174</v>
@@ -7224,7 +7226,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40238</v>
       </c>
@@ -7250,7 +7252,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>46</v>
@@ -7269,7 +7271,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>118</v>
@@ -7286,7 +7288,7 @@
         <v>40279</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>175</v>
@@ -7305,7 +7307,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>40269</v>
       </c>
@@ -7331,7 +7333,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>46</v>
@@ -7350,7 +7352,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>178</v>
@@ -7367,7 +7369,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="49"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>40299</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>40324</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>46</v>
@@ -7412,7 +7414,7 @@
         <v>40317</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>46</v>
@@ -7431,7 +7433,7 @@
         <v>40325</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>179</v>
@@ -7448,7 +7450,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40330</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -7493,7 +7495,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>46</v>
@@ -7512,7 +7514,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>118</v>
@@ -7529,7 +7531,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>46</v>
@@ -7548,7 +7550,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>180</v>
@@ -7565,7 +7567,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40360</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>181</v>
@@ -7608,7 +7610,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40391</v>
       </c>
@@ -7634,7 +7636,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>46</v>
@@ -7653,7 +7655,7 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>120</v>
@@ -7672,7 +7674,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>182</v>
@@ -7689,7 +7691,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40422</v>
       </c>
@@ -7715,7 +7717,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>183</v>
@@ -7732,7 +7734,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40452</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -7777,7 +7779,7 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>185</v>
@@ -7794,7 +7796,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40483</v>
       </c>
@@ -7820,7 +7822,7 @@
         <v>40499</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>186</v>
@@ -7837,7 +7839,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40513</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>40533</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>46</v>
@@ -7885,7 +7887,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>187</v>
@@ -7905,7 +7907,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="48" t="s">
         <v>188</v>
       </c>
@@ -7923,7 +7925,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40544</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>132</v>
@@ -7966,7 +7968,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40575</v>
       </c>
@@ -7992,7 +7994,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>120</v>
@@ -8011,7 +8013,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>132</v>
@@ -8028,7 +8030,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40603</v>
       </c>
@@ -8052,7 +8054,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>189</v>
@@ -8069,7 +8071,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>40634</v>
       </c>
@@ -8095,7 +8097,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>190</v>
@@ -8112,7 +8114,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40664</v>
       </c>
@@ -8138,7 +8140,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>50</v>
@@ -8157,7 +8159,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>118</v>
@@ -8174,7 +8176,7 @@
         <v>40715</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>192</v>
@@ -8191,7 +8193,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>40695</v>
       </c>
@@ -8215,7 +8217,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40725</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>120</v>
@@ -8260,7 +8262,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>50</v>
@@ -8279,7 +8281,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>194</v>
@@ -8296,7 +8298,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40756</v>
       </c>
@@ -8322,7 +8324,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40787</v>
       </c>
@@ -8348,7 +8350,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>118</v>
@@ -8365,7 +8367,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>51</v>
@@ -8382,7 +8384,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>40817</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>197</v>
@@ -8427,7 +8429,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>40848</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>40863</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>195</v>
@@ -8470,7 +8472,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40878</v>
       </c>
@@ -8494,7 +8496,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="48" t="s">
         <v>200</v>
       </c>
@@ -8512,7 +8514,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40909</v>
       </c>
@@ -8536,7 +8538,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="49"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>40940</v>
       </c>
@@ -8560,7 +8562,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>118</v>
@@ -8577,7 +8579,7 @@
         <v>41015</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>202</v>
@@ -8594,7 +8596,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="49"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40969</v>
       </c>
@@ -8618,7 +8620,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41000</v>
       </c>
@@ -8642,7 +8644,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41030</v>
       </c>
@@ -8668,7 +8670,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>81</v>
@@ -8687,7 +8689,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>118</v>
@@ -8704,7 +8706,7 @@
         <v>41080</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>205</v>
@@ -8721,7 +8723,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41061</v>
       </c>
@@ -8747,7 +8749,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>206</v>
@@ -8764,7 +8766,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>41091</v>
       </c>
@@ -8790,7 +8792,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>207</v>
@@ -8807,7 +8809,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41122</v>
       </c>
@@ -8833,7 +8835,7 @@
         <v>41131</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>208</v>
@@ -8850,7 +8852,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>41153</v>
       </c>
@@ -8876,7 +8878,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>50</v>
@@ -8895,7 +8897,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>209</v>
@@ -8912,7 +8914,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>41183</v>
       </c>
@@ -8938,7 +8940,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>46</v>
@@ -8957,7 +8959,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>210</v>
@@ -8974,7 +8976,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41214</v>
       </c>
@@ -9000,7 +9002,7 @@
         <v>41242</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>46</v>
@@ -9019,7 +9021,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>214</v>
@@ -9036,7 +9038,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="49"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>41244</v>
       </c>
@@ -9062,7 +9064,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -9084,7 +9086,7 @@
         <v>41271</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>215</v>
@@ -9104,7 +9106,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>217</v>
       </c>
@@ -9122,7 +9124,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41275</v>
       </c>
@@ -9146,7 +9148,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41306</v>
       </c>
@@ -9170,7 +9172,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>46</v>
@@ -9189,7 +9191,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>46</v>
@@ -9208,7 +9210,7 @@
         <v>41338</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41334</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>118</v>
@@ -9251,7 +9253,7 @@
         <v>41380</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41365</v>
       </c>
@@ -9275,7 +9277,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>41395</v>
       </c>
@@ -9301,7 +9303,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>118</v>
@@ -9318,7 +9320,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>220</v>
@@ -9335,7 +9337,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>41426</v>
       </c>
@@ -9359,7 +9361,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>41456</v>
       </c>
@@ -9385,7 +9387,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41487</v>
       </c>
@@ -9411,7 +9413,7 @@
         <v>41491</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>120</v>
@@ -9430,7 +9432,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -9449,7 +9451,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41518</v>
       </c>
@@ -9475,7 +9477,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>81</v>
@@ -9494,7 +9496,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41548</v>
       </c>
@@ -9518,7 +9520,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>81</v>
@@ -9537,7 +9539,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>41579</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>41611</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>120</v>
@@ -9582,7 +9584,7 @@
         <v>41603</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>120</v>
@@ -9599,7 +9601,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>41609</v>
       </c>
@@ -9625,7 +9627,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>120</v>
@@ -9647,7 +9649,7 @@
         <v>41635</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>46</v>
@@ -9669,7 +9671,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="48" t="s">
         <v>226</v>
       </c>
@@ -9687,7 +9689,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41640</v>
       </c>
@@ -9711,7 +9713,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41671</v>
       </c>
@@ -9735,7 +9737,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41699</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>118</v>
@@ -9778,7 +9780,7 @@
         <v>41745</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>120</v>
@@ -9797,7 +9799,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>221</v>
@@ -9814,7 +9816,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>41730</v>
       </c>
@@ -9838,7 +9840,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>41760</v>
       </c>
@@ -9864,7 +9866,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>118</v>
@@ -9881,7 +9883,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>228</v>
@@ -9898,7 +9900,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41791</v>
       </c>
@@ -9922,7 +9924,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>41821</v>
       </c>
@@ -9946,7 +9948,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>41852</v>
       </c>
@@ -9972,7 +9974,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>231</v>
@@ -9989,7 +9991,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41883</v>
       </c>
@@ -10013,7 +10015,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41913</v>
       </c>
@@ -10039,7 +10041,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>46</v>
@@ -10058,7 +10060,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>233</v>
@@ -10075,7 +10077,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41944</v>
       </c>
@@ -10101,7 +10103,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>234</v>
@@ -10118,7 +10120,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41974</v>
       </c>
@@ -10142,7 +10144,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="48" t="s">
         <v>237</v>
       </c>
@@ -10160,7 +10162,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42005</v>
       </c>
@@ -10184,7 +10186,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42036</v>
       </c>
@@ -10210,7 +10212,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>118</v>
@@ -10227,7 +10229,7 @@
         <v>42062</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>238</v>
@@ -10244,7 +10246,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>42064</v>
       </c>
@@ -10268,7 +10270,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>42095</v>
       </c>
@@ -10292,7 +10294,7 @@
         <v>42110</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>46</v>
@@ -10311,7 +10313,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>50</v>
@@ -10330,7 +10332,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>67</v>
@@ -10349,7 +10351,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>241</v>
@@ -10366,7 +10368,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>42125</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>118</v>
@@ -10409,7 +10411,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>240</v>
@@ -10426,7 +10428,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>42156</v>
       </c>
@@ -10450,7 +10452,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>42186</v>
       </c>
@@ -10474,7 +10476,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>42217</v>
       </c>
@@ -10494,7 +10496,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>42248</v>
       </c>
@@ -10518,7 +10520,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>42278</v>
       </c>
@@ -10544,7 +10546,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>132</v>
@@ -10561,7 +10563,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>42309</v>
       </c>
@@ -10587,7 +10589,7 @@
         <v>42314</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>42339</v>
       </c>
@@ -10611,7 +10613,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="48" t="s">
         <v>248</v>
       </c>
@@ -10629,7 +10631,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42370</v>
       </c>
@@ -10649,7 +10651,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>42401</v>
       </c>
@@ -10673,7 +10675,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42430</v>
       </c>
@@ -10693,7 +10695,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42461</v>
       </c>
@@ -10719,7 +10721,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>118</v>
@@ -10736,7 +10738,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>132</v>
@@ -10753,7 +10755,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42491</v>
       </c>
@@ -10773,7 +10775,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>42522</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>47</v>
@@ -10816,7 +10818,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42552</v>
       </c>
@@ -10840,7 +10842,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42583</v>
       </c>
@@ -10866,7 +10868,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>132</v>
@@ -10883,7 +10885,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42614</v>
       </c>
@@ -10907,7 +10909,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>50</v>
@@ -10926,7 +10928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42644</v>
       </c>
@@ -10952,7 +10954,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>132</v>
@@ -10969,7 +10971,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42675</v>
       </c>
@@ -10989,7 +10991,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42705</v>
       </c>
@@ -11015,7 +11017,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="48" t="s">
         <v>253</v>
       </c>
@@ -11033,7 +11035,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42736</v>
       </c>
@@ -11053,7 +11055,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42767</v>
       </c>
@@ -11079,7 +11081,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>254</v>
@@ -11096,7 +11098,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>255</v>
@@ -11115,7 +11117,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>132</v>
@@ -11132,7 +11134,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42795</v>
       </c>
@@ -11158,7 +11160,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>47</v>
@@ -11177,7 +11179,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42826</v>
       </c>
@@ -11197,7 +11199,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>42856</v>
       </c>
@@ -11223,7 +11225,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42887</v>
       </c>
@@ -11243,7 +11245,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>42917</v>
       </c>
@@ -11263,7 +11265,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42948</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42979</v>
       </c>
@@ -11309,7 +11311,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43009</v>
       </c>
@@ -11335,7 +11337,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43040</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43070</v>
       </c>
@@ -11381,7 +11383,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
         <v>261</v>
       </c>
@@ -11399,7 +11401,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43101</v>
       </c>
@@ -11419,7 +11421,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43132</v>
       </c>
@@ -11445,7 +11447,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>67</v>
@@ -11464,7 +11466,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43160</v>
       </c>
@@ -11484,7 +11486,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43191</v>
       </c>
@@ -11508,7 +11510,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43221</v>
       </c>
@@ -11528,7 +11530,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43252</v>
       </c>
@@ -11554,7 +11556,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>47</v>
@@ -11573,7 +11575,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>47</v>
@@ -11592,7 +11594,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>43282</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43313</v>
       </c>
@@ -11644,7 +11646,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43344</v>
       </c>
@@ -11664,7 +11666,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43374</v>
       </c>
@@ -11690,7 +11692,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>118</v>
@@ -11707,7 +11709,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43405</v>
       </c>
@@ -11727,7 +11729,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43435</v>
       </c>
@@ -11747,7 +11749,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="48" t="s">
         <v>268</v>
       </c>
@@ -11765,7 +11767,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43466</v>
       </c>
@@ -11785,7 +11787,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43497</v>
       </c>
@@ -11805,7 +11807,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43525</v>
       </c>
@@ -11825,7 +11827,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43556</v>
       </c>
@@ -11851,7 +11853,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>118</v>
@@ -11868,7 +11870,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>118</v>
@@ -11885,7 +11887,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43586</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43617</v>
       </c>
@@ -11931,7 +11933,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43647</v>
       </c>
@@ -11951,7 +11953,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43678</v>
       </c>
@@ -11971,7 +11973,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43709</v>
       </c>
@@ -11991,7 +11993,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43739</v>
       </c>
@@ -12017,7 +12019,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>73</v>
@@ -12036,7 +12038,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43770</v>
       </c>
@@ -12056,7 +12058,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43800</v>
       </c>
@@ -12076,7 +12078,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="48" t="s">
         <v>273</v>
       </c>
@@ -12094,7 +12096,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43831</v>
       </c>
@@ -12118,7 +12120,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>275</v>
@@ -12135,7 +12137,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43862</v>
       </c>
@@ -12155,7 +12157,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43891</v>
       </c>
@@ -12175,7 +12177,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43922</v>
       </c>
@@ -12195,7 +12197,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43952</v>
       </c>
@@ -12215,7 +12217,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43983</v>
       </c>
@@ -12235,7 +12237,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44013</v>
       </c>
@@ -12255,7 +12257,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44044</v>
       </c>
@@ -12275,7 +12277,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44075</v>
       </c>
@@ -12295,7 +12297,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44105</v>
       </c>
@@ -12319,7 +12321,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44136</v>
       </c>
@@ -12339,7 +12341,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44166</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>277</v>
@@ -12385,7 +12387,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
         <v>280</v>
       </c>
@@ -12403,7 +12405,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44197</v>
       </c>
@@ -12427,7 +12429,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44228</v>
       </c>
@@ -12447,7 +12449,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44256</v>
       </c>
@@ -12467,7 +12469,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44287</v>
       </c>
@@ -12487,7 +12489,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44317</v>
       </c>
@@ -12507,7 +12509,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44348</v>
       </c>
@@ -12527,7 +12529,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44378</v>
       </c>
@@ -12547,7 +12549,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44409</v>
       </c>
@@ -12567,7 +12569,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44440</v>
       </c>
@@ -12587,7 +12589,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44470</v>
       </c>
@@ -12613,7 +12615,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44501</v>
       </c>
@@ -12633,7 +12635,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44531</v>
       </c>
@@ -12659,7 +12661,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
         <v>282</v>
       </c>
@@ -12677,7 +12679,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44562</v>
       </c>
@@ -12697,7 +12699,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44593</v>
       </c>
@@ -12721,7 +12723,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44621</v>
       </c>
@@ -12741,7 +12743,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44652</v>
       </c>
@@ -12765,7 +12767,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>79</v>
@@ -12787,7 +12789,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44682</v>
       </c>
@@ -12807,7 +12809,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44713</v>
       </c>
@@ -12827,7 +12829,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44743</v>
       </c>
@@ -12847,7 +12849,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44774</v>
       </c>
@@ -12867,7 +12869,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44805</v>
       </c>
@@ -12887,7 +12889,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44835</v>
       </c>
@@ -12913,7 +12915,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44866</v>
       </c>
@@ -12933,7 +12935,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44896</v>
       </c>
@@ -12959,7 +12961,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
         <v>284</v>
       </c>
@@ -12977,7 +12979,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44927</v>
       </c>
@@ -12997,7 +12999,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44958</v>
       </c>
@@ -13021,29 +13023,33 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44986</v>
       </c>
       <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G517" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>45017</v>
       </c>
-      <c r="B518" s="20"/>
+      <c r="B518" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C518" s="13"/>
       <c r="D518" s="39"/>
       <c r="E518" s="9"/>
@@ -13055,9 +13061,11 @@
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="20"/>
-    </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K518" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>45047</v>
       </c>
@@ -13075,7 +13083,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>45078</v>
       </c>
@@ -13093,7 +13101,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>45108</v>
       </c>
@@ -13111,7 +13119,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>45139</v>
       </c>
@@ -13129,7 +13137,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45170</v>
       </c>
@@ -13147,7 +13155,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45200</v>
       </c>
@@ -13165,7 +13173,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45231</v>
       </c>
@@ -13183,7 +13191,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45261</v>
       </c>
@@ -13201,7 +13209,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45292</v>
       </c>
@@ -13219,7 +13227,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45323</v>
       </c>
@@ -13237,7 +13245,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45352</v>
       </c>
@@ -13255,7 +13263,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45383</v>
       </c>
@@ -13273,7 +13281,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45413</v>
       </c>
@@ -13291,7 +13299,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45444</v>
       </c>
@@ -13309,7 +13317,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45474</v>
       </c>
@@ -13327,7 +13335,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45505</v>
       </c>
@@ -13345,7 +13353,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45536</v>
       </c>
@@ -13363,7 +13371,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45566</v>
       </c>
@@ -13381,7 +13389,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45597</v>
       </c>
@@ -13399,7 +13407,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45627</v>
       </c>
@@ -13417,7 +13425,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45658</v>
       </c>
@@ -13435,7 +13443,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>45689</v>
       </c>
@@ -13453,7 +13461,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>45717</v>
       </c>
@@ -13471,7 +13479,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45748</v>
       </c>
@@ -13489,7 +13497,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45778</v>
       </c>
@@ -13507,7 +13515,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45809</v>
       </c>
@@ -13525,7 +13533,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45839</v>
       </c>
@@ -13543,7 +13551,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45870</v>
       </c>
@@ -13561,7 +13569,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45901</v>
       </c>
@@ -13579,7 +13587,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45931</v>
       </c>
@@ -13597,7 +13605,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45962</v>
       </c>
@@ -13615,7 +13623,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45992</v>
       </c>
@@ -13633,7 +13641,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>46023</v>
       </c>
@@ -13651,7 +13659,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>46054</v>
       </c>
@@ -13669,7 +13677,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>46082</v>
       </c>
@@ -13687,7 +13695,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>46113</v>
       </c>
@@ -13705,7 +13713,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>46143</v>
       </c>
@@ -13723,7 +13731,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>46174</v>
       </c>
@@ -13741,7 +13749,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>46204</v>
       </c>
@@ -13759,7 +13767,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>46235</v>
       </c>
@@ -13777,7 +13785,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>46266</v>
       </c>
@@ -13795,7 +13803,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>46296</v>
       </c>
@@ -13813,7 +13821,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>46327</v>
       </c>
@@ -13831,7 +13839,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>46357</v>
       </c>
@@ -13849,7 +13857,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>46388</v>
       </c>
@@ -13867,7 +13875,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>46419</v>
       </c>
@@ -13885,7 +13893,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>46447</v>
       </c>
@@ -13903,7 +13911,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>46478</v>
       </c>
@@ -13921,7 +13929,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>46508</v>
       </c>
@@ -13939,7 +13947,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>46539</v>
       </c>
@@ -13957,7 +13965,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>46569</v>
       </c>
@@ -13975,7 +13983,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>46600</v>
       </c>
@@ -13993,7 +14001,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>46631</v>
       </c>
@@ -14011,7 +14019,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -14027,7 +14035,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14043,7 +14051,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14059,7 +14067,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14075,7 +14083,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14091,7 +14099,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14107,7 +14115,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14123,7 +14131,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14139,7 +14147,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14155,7 +14163,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14171,7 +14179,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14187,7 +14195,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14203,7 +14211,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14219,7 +14227,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14235,7 +14243,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="41"/>
       <c r="B586" s="15"/>
       <c r="C586" s="42"/>
@@ -14266,10 +14274,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14292,28 +14300,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -14326,7 +14334,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14355,7 +14363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.54200000000000004</v>
       </c>
@@ -14385,17 +14393,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14416,7 +14424,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14443,7 +14451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14469,7 +14477,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14495,7 +14503,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14521,7 +14529,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14547,7 +14555,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14573,7 +14581,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14599,7 +14607,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14625,7 +14633,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14645,7 +14653,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14665,7 +14673,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14685,7 +14693,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14706,7 +14714,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14727,7 +14735,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14748,7 +14756,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14769,7 +14777,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14790,7 +14798,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14811,7 +14819,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14832,7 +14840,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14853,7 +14861,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14874,7 +14882,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14895,7 +14903,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14916,7 +14924,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14937,7 +14945,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14958,7 +14966,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14979,7 +14987,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15000,7 +15008,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15021,7 +15029,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15042,7 +15050,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15063,7 +15071,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15084,7 +15092,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15105,7 +15113,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15114,7 +15122,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15123,7 +15131,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15132,7 +15140,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15141,7 +15149,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15150,7 +15158,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15159,7 +15167,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15168,7 +15176,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15177,7 +15185,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15186,7 +15194,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15195,7 +15203,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15204,7 +15212,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15213,7 +15221,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15222,7 +15230,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15231,7 +15239,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15240,7 +15248,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15249,7 +15257,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15258,7 +15266,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15267,7 +15275,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15276,7 +15284,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15285,7 +15293,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15294,7 +15302,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15303,7 +15311,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15312,7 +15320,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15321,7 +15329,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15330,7 +15338,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15339,7 +15347,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15348,7 +15356,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15357,7 +15365,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15366,7 +15374,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/JAVIER, CARMELITA M..xlsx
+++ b/REGULAR/JAVIER, CARMELITA M..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="288">
   <si>
     <t>PERIOD</t>
   </si>
@@ -894,6 +894,9 @@
   </si>
   <si>
     <t>BDAY 4/17/2023</t>
+  </si>
+  <si>
+    <t>5/3-5/2023</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1927,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A511" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B519" sqref="B519"/>
+      <selection pane="bottomLeft" activeCell="D516" sqref="D516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2086,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.315000000000026</v>
+        <v>59.565000000000026</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2093,7 +2096,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>72.999999999999972</v>
+        <v>71.249999999999972</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13050,13 +13053,15 @@
       <c r="B518" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C518" s="13"/>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D518" s="39"/>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
@@ -13069,7 +13074,9 @@
       <c r="A519" s="40">
         <v>45047</v>
       </c>
-      <c r="B519" s="20"/>
+      <c r="B519" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C519" s="13"/>
       <c r="D519" s="39"/>
       <c r="E519" s="9"/>
@@ -13078,10 +13085,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H519" s="39"/>
+      <c r="H519" s="39">
+        <v>3</v>
+      </c>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="20"/>
+      <c r="K519" s="20" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">

--- a/REGULAR/JAVIER, CARMELITA M..xlsx
+++ b/REGULAR/JAVIER, CARMELITA M..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E490D-6986-42B7-898E-4202DC5EF2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="290">
   <si>
     <t>PERIOD</t>
   </si>
@@ -897,12 +898,18 @@
   </si>
   <si>
     <t>5/3-5/2023</t>
+  </si>
+  <si>
+    <t>5/25-26/2023</t>
+  </si>
+  <si>
+    <t>CCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1594,25 +1601,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K586" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K587" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K587" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1919,33 +1927,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K586"/>
+  <dimension ref="A2:K587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A511" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D516" sqref="D516"/>
+      <pane ySplit="4428" topLeftCell="A518"/>
+      <selection activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C520" sqref="C520"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +1975,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1984,7 +1993,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1995,7 +2004,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="54" t="s">
+        <v>289</v>
+      </c>
       <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -2004,7 +2015,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2012,7 +2023,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2025,7 +2036,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2042,7 +2053,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2086,7 +2097,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.565000000000026</v>
+        <v>63.388000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2096,12 +2107,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.249999999999972</v>
+        <v>76.499999999999972</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>55</v>
       </c>
@@ -2123,7 +2134,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35582</v>
       </c>
@@ -2143,7 +2154,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35612</v>
       </c>
@@ -2163,7 +2174,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35643</v>
       </c>
@@ -2183,7 +2194,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35674</v>
       </c>
@@ -2203,7 +2214,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35704</v>
       </c>
@@ -2223,7 +2234,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35735</v>
       </c>
@@ -2243,7 +2254,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35765</v>
       </c>
@@ -2263,7 +2274,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -2281,7 +2292,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35796</v>
       </c>
@@ -2307,7 +2318,7 @@
         <v>36176</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35827</v>
       </c>
@@ -2327,7 +2338,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>35855</v>
       </c>
@@ -2347,7 +2358,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35886</v>
       </c>
@@ -2367,7 +2378,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>35916</v>
       </c>
@@ -2393,7 +2404,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>46</v>
@@ -2412,7 +2423,7 @@
         <v>36295</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35947</v>
       </c>
@@ -2438,7 +2449,7 @@
         <v>36312</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>35977</v>
       </c>
@@ -2458,7 +2469,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36008</v>
       </c>
@@ -2480,7 +2491,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36023</v>
       </c>
@@ -2500,7 +2511,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36039</v>
       </c>
@@ -2526,7 +2537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>50</v>
@@ -2545,7 +2556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36069</v>
       </c>
@@ -2569,7 +2580,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36100</v>
       </c>
@@ -2589,7 +2600,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36130</v>
       </c>
@@ -2613,7 +2624,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>45</v>
       </c>
@@ -2631,7 +2642,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36161</v>
       </c>
@@ -2651,7 +2662,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36192</v>
       </c>
@@ -2671,7 +2682,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36220</v>
       </c>
@@ -2691,7 +2702,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36251</v>
       </c>
@@ -2711,7 +2722,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36281</v>
       </c>
@@ -2737,7 +2748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -2756,7 +2767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>57</v>
@@ -2775,7 +2786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36312</v>
       </c>
@@ -2801,7 +2812,7 @@
         <v>36331</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36342</v>
       </c>
@@ -2821,7 +2832,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36373</v>
       </c>
@@ -2847,7 +2858,7 @@
         <v>36393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36404</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>36438</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -2892,7 +2903,7 @@
         <v>36443</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36434</v>
       </c>
@@ -2912,7 +2923,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36465</v>
       </c>
@@ -2938,7 +2949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -2957,7 +2968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36495</v>
       </c>
@@ -2983,7 +2994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>62</v>
@@ -3003,7 +3014,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>66</v>
       </c>
@@ -3021,7 +3032,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36526</v>
       </c>
@@ -3041,7 +3052,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36557</v>
       </c>
@@ -3067,7 +3078,7 @@
         <v>36561</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>47</v>
@@ -3086,7 +3097,7 @@
         <v>36563</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36586</v>
       </c>
@@ -3112,7 +3123,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36617</v>
       </c>
@@ -3138,7 +3149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>67</v>
@@ -3157,7 +3168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>36647</v>
       </c>
@@ -3183,7 +3194,7 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>68</v>
@@ -3202,7 +3213,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36678</v>
       </c>
@@ -3222,7 +3233,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36708</v>
       </c>
@@ -3248,7 +3259,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>72</v>
@@ -3265,7 +3276,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36739</v>
       </c>
@@ -3291,7 +3302,7 @@
         <v>36747</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36770</v>
       </c>
@@ -3317,7 +3328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>36800</v>
       </c>
@@ -3337,7 +3348,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36831</v>
       </c>
@@ -3363,7 +3374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36861</v>
       </c>
@@ -3389,7 +3400,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>76</v>
       </c>
@@ -3407,7 +3418,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36892</v>
       </c>
@@ -3433,7 +3444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>49</v>
@@ -3452,7 +3463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36923</v>
       </c>
@@ -3472,7 +3483,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36951</v>
       </c>
@@ -3492,7 +3503,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>36982</v>
       </c>
@@ -3512,7 +3523,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37012</v>
       </c>
@@ -3538,7 +3549,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>79</v>
@@ -3557,7 +3568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>80</v>
@@ -3574,7 +3585,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37043</v>
       </c>
@@ -3600,7 +3611,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37073</v>
       </c>
@@ -3626,7 +3637,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>82</v>
@@ -3645,7 +3656,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37104</v>
       </c>
@@ -3671,7 +3682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37135</v>
       </c>
@@ -3691,7 +3702,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37165</v>
       </c>
@@ -3717,7 +3728,7 @@
         <v>37192</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>37196</v>
       </c>
@@ -3743,7 +3754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37226</v>
       </c>
@@ -3763,7 +3774,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -3781,7 +3792,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37257</v>
       </c>
@@ -3805,7 +3816,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37288</v>
       </c>
@@ -3831,7 +3842,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37316</v>
       </c>
@@ -3853,7 +3864,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37347</v>
       </c>
@@ -3875,7 +3886,7 @@
         <v>37362</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37377</v>
       </c>
@@ -3901,7 +3912,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37408</v>
       </c>
@@ -3927,7 +3938,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37438</v>
       </c>
@@ -3953,7 +3964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
@@ -3972,7 +3983,7 @@
         <v>37467</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37469</v>
       </c>
@@ -3998,7 +4009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37500</v>
       </c>
@@ -4024,7 +4035,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37530</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>37562</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>37561</v>
       </c>
@@ -4076,7 +4087,7 @@
         <v>37583</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>37591</v>
       </c>
@@ -4096,7 +4107,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
         <v>101</v>
       </c>
@@ -4114,7 +4125,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37622</v>
       </c>
@@ -4134,7 +4145,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37653</v>
       </c>
@@ -4154,7 +4165,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37681</v>
       </c>
@@ -4180,7 +4191,7 @@
         <v>37693</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4199,7 +4210,7 @@
         <v>37716</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37712</v>
       </c>
@@ -4225,7 +4236,7 @@
         <v>37727</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>37742</v>
       </c>
@@ -4251,7 +4262,7 @@
         <v>37744</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37773</v>
       </c>
@@ -4271,7 +4282,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37803</v>
       </c>
@@ -4297,7 +4308,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -4316,7 +4327,7 @@
         <v>37824</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>56</v>
@@ -4335,7 +4346,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37834</v>
       </c>
@@ -4361,7 +4372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37865</v>
       </c>
@@ -4387,7 +4398,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>47</v>
@@ -4406,7 +4417,7 @@
         <v>37888</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37895</v>
       </c>
@@ -4432,7 +4443,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4451,7 +4462,7 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37926</v>
       </c>
@@ -4471,7 +4482,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37956</v>
       </c>
@@ -4491,7 +4502,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>106</v>
       </c>
@@ -4509,7 +4520,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37987</v>
       </c>
@@ -4535,7 +4546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38018</v>
       </c>
@@ -4561,7 +4572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>38047</v>
       </c>
@@ -4587,7 +4598,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>111</v>
@@ -4608,7 +4619,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>38078</v>
       </c>
@@ -4636,7 +4647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>113</v>
@@ -4653,7 +4664,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>38108</v>
       </c>
@@ -4673,7 +4684,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>38139</v>
       </c>
@@ -4693,7 +4704,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>38169</v>
       </c>
@@ -4713,7 +4724,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>38200</v>
       </c>
@@ -4733,7 +4744,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>38231</v>
       </c>
@@ -4753,7 +4764,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38261</v>
       </c>
@@ -4773,7 +4784,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>38292</v>
       </c>
@@ -4793,7 +4804,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>38322</v>
       </c>
@@ -4813,7 +4824,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>117</v>
       </c>
@@ -4831,7 +4842,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>38353</v>
       </c>
@@ -4855,7 +4866,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>118</v>
@@ -4872,7 +4883,7 @@
         <v>38383</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38384</v>
       </c>
@@ -4898,7 +4909,7 @@
         <v>38399</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>38412</v>
       </c>
@@ -4924,7 +4935,7 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>120</v>
@@ -4943,7 +4954,7 @@
         <v>38443</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>121</v>
@@ -4960,7 +4971,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>38443</v>
       </c>
@@ -4986,7 +4997,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>120</v>
@@ -5005,7 +5016,7 @@
         <v>38469</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -5024,7 +5035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -5043,7 +5054,7 @@
         <v>38470</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>38473</v>
       </c>
@@ -5069,7 +5080,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>38504</v>
       </c>
@@ -5095,7 +5106,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -5114,7 +5125,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38534</v>
       </c>
@@ -5140,7 +5151,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>52</v>
@@ -5159,7 +5170,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>38565</v>
       </c>
@@ -5185,7 +5196,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38596</v>
       </c>
@@ -5211,7 +5222,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>120</v>
@@ -5230,7 +5241,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>46</v>
@@ -5249,7 +5260,7 @@
         <v>38618</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38626</v>
       </c>
@@ -5275,7 +5286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38657</v>
       </c>
@@ -5301,7 +5312,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>127</v>
@@ -5320,7 +5331,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38687</v>
       </c>
@@ -5340,7 +5351,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48" t="s">
         <v>131</v>
       </c>
@@ -5358,7 +5369,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>38718</v>
       </c>
@@ -5384,7 +5395,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>81</v>
@@ -5403,7 +5414,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>132</v>
@@ -5420,7 +5431,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38749</v>
       </c>
@@ -5446,7 +5457,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -5463,7 +5474,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38777</v>
       </c>
@@ -5487,7 +5498,7 @@
         <v>38797</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>46</v>
@@ -5506,7 +5517,7 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38808</v>
       </c>
@@ -5530,7 +5541,7 @@
         <v>38824</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38838</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>56</v>
@@ -5577,15 +5588,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="39">
-        <v>0.57299999999999995</v>
-      </c>
+      <c r="D168" s="39"/>
       <c r="E168" s="9"/>
       <c r="F168" s="20">
         <v>0.57299999999999995</v>
@@ -5596,7 +5605,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>38869</v>
       </c>
@@ -5618,7 +5627,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>38899</v>
       </c>
@@ -5642,7 +5651,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38930</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5688,7 +5697,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38961</v>
       </c>
@@ -5714,7 +5723,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>137</v>
@@ -5734,7 +5743,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>38991</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>46</v>
@@ -5784,7 +5793,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>39022</v>
       </c>
@@ -5810,7 +5819,7 @@
         <v>39076</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>138</v>
@@ -5830,7 +5839,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>39052</v>
       </c>
@@ -5854,7 +5863,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="48" t="s">
         <v>144</v>
       </c>
@@ -5872,7 +5881,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>39083</v>
       </c>
@@ -5896,7 +5905,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>39114</v>
       </c>
@@ -5922,7 +5931,7 @@
         <v>39116</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>118</v>
@@ -5939,7 +5948,7 @@
         <v>39119</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>39142</v>
       </c>
@@ -5965,7 +5974,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>39173</v>
       </c>
@@ -5993,7 +6002,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>39203</v>
       </c>
@@ -6021,7 +6030,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>118</v>
@@ -6038,7 +6047,7 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>39234</v>
       </c>
@@ -6064,7 +6073,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>39264</v>
       </c>
@@ -6084,7 +6093,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39295</v>
       </c>
@@ -6110,7 +6119,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>52</v>
@@ -6129,7 +6138,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>39326</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>39356</v>
       </c>
@@ -6181,7 +6190,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>39387</v>
       </c>
@@ -6207,7 +6216,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>46</v>
@@ -6226,7 +6235,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>39417</v>
       </c>
@@ -6246,7 +6255,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="48" t="s">
         <v>150</v>
       </c>
@@ -6264,7 +6273,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>39448</v>
       </c>
@@ -6284,7 +6293,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>39479</v>
       </c>
@@ -6304,7 +6313,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>39508</v>
       </c>
@@ -6324,7 +6333,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>39539</v>
       </c>
@@ -6348,7 +6357,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>118</v>
@@ -6365,7 +6374,7 @@
         <v>39554</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>39569</v>
       </c>
@@ -6391,7 +6400,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -6408,7 +6417,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>39600</v>
       </c>
@@ -6432,7 +6441,7 @@
         <v>39619</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>39630</v>
       </c>
@@ -6458,7 +6467,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>39661</v>
       </c>
@@ -6484,7 +6493,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>39692</v>
       </c>
@@ -6510,7 +6519,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>39722</v>
       </c>
@@ -6536,7 +6545,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39753</v>
       </c>
@@ -6556,7 +6565,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>39783</v>
       </c>
@@ -6576,7 +6585,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="48" t="s">
         <v>155</v>
       </c>
@@ -6594,7 +6603,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>39814</v>
       </c>
@@ -6614,7 +6623,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39845</v>
       </c>
@@ -6638,7 +6647,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>39873</v>
       </c>
@@ -6664,7 +6673,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>39904</v>
       </c>
@@ -6690,7 +6699,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>157</v>
@@ -6707,7 +6716,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>39934</v>
       </c>
@@ -6731,7 +6740,7 @@
         <v>39983</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>158</v>
@@ -6748,7 +6757,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>39965</v>
       </c>
@@ -6774,7 +6783,7 @@
         <v>39973</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>159</v>
@@ -6791,7 +6800,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39995</v>
       </c>
@@ -6817,7 +6826,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -6836,7 +6845,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>46</v>
@@ -6855,7 +6864,7 @@
         <v>40017</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>46</v>
@@ -6874,7 +6883,7 @@
         <v>40022</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -6893,7 +6902,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>160</v>
@@ -6910,7 +6919,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>40026</v>
       </c>
@@ -6934,7 +6943,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>40057</v>
       </c>
@@ -6960,7 +6969,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>166</v>
@@ -6977,7 +6986,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>40087</v>
       </c>
@@ -7003,10 +7012,10 @@
         <v>40092</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39"/>
@@ -7022,7 +7031,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>46</v>
@@ -7041,7 +7050,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7058,7 +7067,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>40118</v>
       </c>
@@ -7084,7 +7093,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>168</v>
@@ -7101,7 +7110,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>40148</v>
       </c>
@@ -7125,7 +7134,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="48" t="s">
         <v>172</v>
       </c>
@@ -7143,19 +7152,17 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>40179</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
       </c>
-      <c r="D239" s="39">
-        <v>2</v>
-      </c>
+      <c r="D239" s="39"/>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
       <c r="G239" s="42">
@@ -7171,7 +7178,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>173</v>
@@ -7188,7 +7195,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>40210</v>
       </c>
@@ -7212,7 +7219,7 @@
         <v>40235</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>174</v>
@@ -7229,7 +7236,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40238</v>
       </c>
@@ -7255,7 +7262,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>46</v>
@@ -7274,7 +7281,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>118</v>
@@ -7291,7 +7298,7 @@
         <v>40279</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>175</v>
@@ -7310,7 +7317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>40269</v>
       </c>
@@ -7336,7 +7343,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>46</v>
@@ -7355,7 +7362,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>178</v>
@@ -7372,7 +7379,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="49"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>40299</v>
       </c>
@@ -7398,7 +7405,7 @@
         <v>40324</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>46</v>
@@ -7417,7 +7424,7 @@
         <v>40317</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>46</v>
@@ -7436,7 +7443,7 @@
         <v>40325</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>179</v>
@@ -7453,7 +7460,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>40330</v>
       </c>
@@ -7479,7 +7486,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -7498,7 +7505,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>46</v>
@@ -7517,7 +7524,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>118</v>
@@ -7534,7 +7541,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>46</v>
@@ -7553,7 +7560,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>180</v>
@@ -7570,7 +7577,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>40360</v>
       </c>
@@ -7596,7 +7603,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>181</v>
@@ -7613,7 +7620,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>40391</v>
       </c>
@@ -7639,7 +7646,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>46</v>
@@ -7658,26 +7665,26 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C264" s="13"/>
-      <c r="D264" s="39"/>
+      <c r="D264" s="39">
+        <v>1</v>
+      </c>
       <c r="E264" s="9"/>
       <c r="F264" s="20"/>
       <c r="G264" s="13"/>
-      <c r="H264" s="39">
-        <v>2</v>
-      </c>
+      <c r="H264" s="39"/>
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
       <c r="K264" s="49">
         <v>40421</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>182</v>
@@ -7694,7 +7701,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40422</v>
       </c>
@@ -7720,7 +7727,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>183</v>
@@ -7737,12 +7744,12 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>40452</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -7763,7 +7770,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -7782,7 +7789,7 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>185</v>
@@ -7799,7 +7806,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>40483</v>
       </c>
@@ -7825,7 +7832,7 @@
         <v>40499</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>186</v>
@@ -7842,7 +7849,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>40513</v>
       </c>
@@ -7868,7 +7875,7 @@
         <v>40533</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>46</v>
@@ -7890,7 +7897,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>187</v>
@@ -7910,7 +7917,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="48" t="s">
         <v>188</v>
       </c>
@@ -7928,7 +7935,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>40544</v>
       </c>
@@ -7952,7 +7959,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>132</v>
@@ -7964,14 +7971,12 @@
       <c r="E278" s="9"/>
       <c r="F278" s="20"/>
       <c r="G278" s="13"/>
-      <c r="H278" s="39">
-        <v>5</v>
-      </c>
+      <c r="H278" s="39"/>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>40575</v>
       </c>
@@ -7997,7 +8002,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>120</v>
@@ -8016,7 +8021,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>132</v>
@@ -8033,7 +8038,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>40603</v>
       </c>
@@ -8057,7 +8062,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>189</v>
@@ -8074,7 +8079,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>40634</v>
       </c>
@@ -8100,7 +8105,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>190</v>
@@ -8117,7 +8122,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>40664</v>
       </c>
@@ -8143,7 +8148,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>50</v>
@@ -8162,7 +8167,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>118</v>
@@ -8179,7 +8184,7 @@
         <v>40715</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>192</v>
@@ -8196,7 +8201,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>40695</v>
       </c>
@@ -8220,7 +8225,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40725</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>120</v>
@@ -8265,7 +8270,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>50</v>
@@ -8284,7 +8289,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>194</v>
@@ -8301,7 +8306,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40756</v>
       </c>
@@ -8327,12 +8332,12 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40787</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -8353,7 +8358,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>118</v>
@@ -8370,7 +8375,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>51</v>
@@ -8387,7 +8392,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>40817</v>
       </c>
@@ -8397,9 +8402,7 @@
       <c r="C299" s="13">
         <v>1.25</v>
       </c>
-      <c r="D299" s="39">
-        <v>1</v>
-      </c>
+      <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
       <c r="G299" s="42">
@@ -8415,7 +8418,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>197</v>
@@ -8432,7 +8435,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>40848</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>40863</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>195</v>
@@ -8475,7 +8478,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40878</v>
       </c>
@@ -8499,7 +8502,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="48" t="s">
         <v>200</v>
       </c>
@@ -8517,7 +8520,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>40909</v>
       </c>
@@ -8541,7 +8544,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="49"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40940</v>
       </c>
@@ -8565,7 +8568,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>118</v>
@@ -8582,7 +8585,7 @@
         <v>41015</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>202</v>
@@ -8599,7 +8602,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="49"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>40969</v>
       </c>
@@ -8623,7 +8626,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41000</v>
       </c>
@@ -8647,7 +8650,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>41030</v>
       </c>
@@ -8673,7 +8676,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>81</v>
@@ -8692,7 +8695,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>118</v>
@@ -8709,7 +8712,7 @@
         <v>41080</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>205</v>
@@ -8726,7 +8729,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>41061</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>206</v>
@@ -8769,7 +8772,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>41091</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>207</v>
@@ -8812,7 +8815,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>41122</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>41131</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>208</v>
@@ -8855,7 +8858,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>41153</v>
       </c>
@@ -8881,7 +8884,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>50</v>
@@ -8900,7 +8903,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>209</v>
@@ -8917,7 +8920,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>41183</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>46</v>
@@ -8962,7 +8965,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>210</v>
@@ -8979,12 +8982,12 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>41214</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C327" s="13">
         <v>1.25</v>
@@ -9005,7 +9008,7 @@
         <v>41242</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>46</v>
@@ -9024,7 +9027,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>214</v>
@@ -9041,7 +9044,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="49"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>41244</v>
       </c>
@@ -9067,7 +9070,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -9089,7 +9092,7 @@
         <v>41271</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>215</v>
@@ -9109,7 +9112,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>217</v>
       </c>
@@ -9127,7 +9130,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>41275</v>
       </c>
@@ -9151,7 +9154,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>41306</v>
       </c>
@@ -9175,7 +9178,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>46</v>
@@ -9194,7 +9197,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>46</v>
@@ -9213,7 +9216,7 @@
         <v>41338</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>41334</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>118</v>
@@ -9256,7 +9259,7 @@
         <v>41380</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41365</v>
       </c>
@@ -9280,7 +9283,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>41395</v>
       </c>
@@ -9306,7 +9309,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>118</v>
@@ -9323,7 +9326,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>220</v>
@@ -9340,7 +9343,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>41426</v>
       </c>
@@ -9364,7 +9367,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>41456</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>41487</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>41491</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>120</v>
@@ -9435,7 +9438,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -9454,7 +9457,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>41518</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>81</v>
@@ -9499,7 +9502,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>41548</v>
       </c>
@@ -9523,7 +9526,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>81</v>
@@ -9542,7 +9545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>41579</v>
       </c>
@@ -9568,7 +9571,7 @@
         <v>41611</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>120</v>
@@ -9587,7 +9590,7 @@
         <v>41603</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>120</v>
@@ -9604,7 +9607,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>41609</v>
       </c>
@@ -9630,7 +9633,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>120</v>
@@ -9652,7 +9655,7 @@
         <v>41635</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>46</v>
@@ -9674,7 +9677,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="48" t="s">
         <v>226</v>
       </c>
@@ -9692,7 +9695,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41640</v>
       </c>
@@ -9716,7 +9719,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41671</v>
       </c>
@@ -9740,7 +9743,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>41699</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>118</v>
@@ -9783,7 +9786,7 @@
         <v>41745</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>120</v>
@@ -9802,7 +9805,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>221</v>
@@ -9819,7 +9822,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>41730</v>
       </c>
@@ -9843,7 +9846,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>41760</v>
       </c>
@@ -9869,7 +9872,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>118</v>
@@ -9886,7 +9889,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>228</v>
@@ -9903,7 +9906,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41791</v>
       </c>
@@ -9927,7 +9930,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>41821</v>
       </c>
@@ -9951,7 +9954,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>41852</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>231</v>
@@ -9994,7 +9997,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41883</v>
       </c>
@@ -10018,7 +10021,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41913</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>46</v>
@@ -10063,7 +10066,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>233</v>
@@ -10080,7 +10083,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>41944</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>234</v>
@@ -10123,7 +10126,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>41974</v>
       </c>
@@ -10147,7 +10150,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="48" t="s">
         <v>237</v>
       </c>
@@ -10165,7 +10168,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>42005</v>
       </c>
@@ -10189,7 +10192,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>42036</v>
       </c>
@@ -10215,7 +10218,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>118</v>
@@ -10232,7 +10235,7 @@
         <v>42062</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>238</v>
@@ -10249,7 +10252,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>42064</v>
       </c>
@@ -10273,7 +10276,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>42095</v>
       </c>
@@ -10297,7 +10300,7 @@
         <v>42110</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>46</v>
@@ -10316,7 +10319,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>50</v>
@@ -10335,7 +10338,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>67</v>
@@ -10354,7 +10357,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>241</v>
@@ -10371,7 +10374,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>42125</v>
       </c>
@@ -10397,7 +10400,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>118</v>
@@ -10414,7 +10417,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>240</v>
@@ -10431,7 +10434,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>42156</v>
       </c>
@@ -10455,7 +10458,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>42186</v>
       </c>
@@ -10479,7 +10482,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>42217</v>
       </c>
@@ -10499,7 +10502,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>42248</v>
       </c>
@@ -10523,7 +10526,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>42278</v>
       </c>
@@ -10549,7 +10552,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>132</v>
@@ -10566,7 +10569,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>42309</v>
       </c>
@@ -10592,7 +10595,7 @@
         <v>42314</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>42339</v>
       </c>
@@ -10616,7 +10619,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="48" t="s">
         <v>248</v>
       </c>
@@ -10634,7 +10637,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>42370</v>
       </c>
@@ -10654,7 +10657,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>42401</v>
       </c>
@@ -10678,7 +10681,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42430</v>
       </c>
@@ -10698,7 +10701,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>42461</v>
       </c>
@@ -10724,7 +10727,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>118</v>
@@ -10741,7 +10744,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>132</v>
@@ -10758,7 +10761,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>42491</v>
       </c>
@@ -10778,7 +10781,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>42522</v>
       </c>
@@ -10802,7 +10805,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>47</v>
@@ -10821,7 +10824,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42552</v>
       </c>
@@ -10845,7 +10848,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>42583</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>132</v>
@@ -10888,7 +10891,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>42614</v>
       </c>
@@ -10912,7 +10915,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>50</v>
@@ -10931,7 +10934,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42644</v>
       </c>
@@ -10957,7 +10960,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>132</v>
@@ -10974,7 +10977,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>42675</v>
       </c>
@@ -10994,7 +10997,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>42705</v>
       </c>
@@ -11020,7 +11023,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="48" t="s">
         <v>253</v>
       </c>
@@ -11038,7 +11041,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>42736</v>
       </c>
@@ -11058,7 +11061,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42767</v>
       </c>
@@ -11084,7 +11087,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>254</v>
@@ -11101,7 +11104,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>255</v>
@@ -11120,7 +11123,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>132</v>
@@ -11137,7 +11140,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>42795</v>
       </c>
@@ -11163,7 +11166,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>47</v>
@@ -11182,7 +11185,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42826</v>
       </c>
@@ -11202,7 +11205,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>42856</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>42887</v>
       </c>
@@ -11248,7 +11251,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>42917</v>
       </c>
@@ -11268,7 +11271,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>42948</v>
       </c>
@@ -11285,16 +11288,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H434" s="39"/>
-      <c r="I434" s="9">
+      <c r="H434" s="39">
         <v>1</v>
       </c>
+      <c r="I434" s="9"/>
       <c r="J434" s="11"/>
       <c r="K434" s="49">
         <v>42955</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>42979</v>
       </c>
@@ -11314,7 +11317,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43009</v>
       </c>
@@ -11340,7 +11343,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>43040</v>
       </c>
@@ -11366,7 +11369,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43070</v>
       </c>
@@ -11386,7 +11389,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="48" t="s">
         <v>261</v>
       </c>
@@ -11404,7 +11407,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43101</v>
       </c>
@@ -11424,7 +11427,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>43132</v>
       </c>
@@ -11450,7 +11453,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>67</v>
@@ -11469,7 +11472,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43160</v>
       </c>
@@ -11489,7 +11492,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43191</v>
       </c>
@@ -11513,7 +11516,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43221</v>
       </c>
@@ -11533,7 +11536,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43252</v>
       </c>
@@ -11559,7 +11562,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>47</v>
@@ -11578,7 +11581,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>47</v>
@@ -11597,7 +11600,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>43282</v>
       </c>
@@ -11623,7 +11626,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>43313</v>
       </c>
@@ -11649,7 +11652,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>43344</v>
       </c>
@@ -11669,7 +11672,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>43374</v>
       </c>
@@ -11695,7 +11698,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>118</v>
@@ -11712,7 +11715,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43405</v>
       </c>
@@ -11732,7 +11735,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43435</v>
       </c>
@@ -11752,7 +11755,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="48" t="s">
         <v>268</v>
       </c>
@@ -11770,7 +11773,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43466</v>
       </c>
@@ -11790,7 +11793,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43497</v>
       </c>
@@ -11810,7 +11813,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>43525</v>
       </c>
@@ -11830,7 +11833,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43556</v>
       </c>
@@ -11856,7 +11859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>118</v>
@@ -11873,7 +11876,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>118</v>
@@ -11890,7 +11893,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43586</v>
       </c>
@@ -11916,7 +11919,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43617</v>
       </c>
@@ -11936,7 +11939,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43647</v>
       </c>
@@ -11956,7 +11959,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>43678</v>
       </c>
@@ -11976,7 +11979,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43709</v>
       </c>
@@ -11996,7 +11999,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43739</v>
       </c>
@@ -12022,7 +12025,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>73</v>
@@ -12041,7 +12044,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43770</v>
       </c>
@@ -12061,7 +12064,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43800</v>
       </c>
@@ -12081,7 +12084,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="48" t="s">
         <v>273</v>
       </c>
@@ -12099,7 +12102,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43831</v>
       </c>
@@ -12123,7 +12126,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>275</v>
@@ -12140,7 +12143,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43862</v>
       </c>
@@ -12160,7 +12163,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43891</v>
       </c>
@@ -12180,7 +12183,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43922</v>
       </c>
@@ -12200,7 +12203,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43952</v>
       </c>
@@ -12220,7 +12223,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43983</v>
       </c>
@@ -12240,7 +12243,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44013</v>
       </c>
@@ -12260,7 +12263,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44044</v>
       </c>
@@ -12280,7 +12283,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44075</v>
       </c>
@@ -12300,7 +12303,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44105</v>
       </c>
@@ -12324,7 +12327,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44136</v>
       </c>
@@ -12344,7 +12347,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44166</v>
       </c>
@@ -12370,7 +12373,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>277</v>
@@ -12390,7 +12393,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="48" t="s">
         <v>280</v>
       </c>
@@ -12408,7 +12411,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44197</v>
       </c>
@@ -12432,7 +12435,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44228</v>
       </c>
@@ -12452,7 +12455,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44256</v>
       </c>
@@ -12472,7 +12475,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44287</v>
       </c>
@@ -12492,7 +12495,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44317</v>
       </c>
@@ -12512,7 +12515,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44348</v>
       </c>
@@ -12532,7 +12535,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44378</v>
       </c>
@@ -12552,7 +12555,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44409</v>
       </c>
@@ -12572,7 +12575,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44440</v>
       </c>
@@ -12592,7 +12595,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44470</v>
       </c>
@@ -12618,7 +12621,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44501</v>
       </c>
@@ -12638,7 +12641,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44531</v>
       </c>
@@ -12664,7 +12667,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="48" t="s">
         <v>282</v>
       </c>
@@ -12682,7 +12685,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>44562</v>
       </c>
@@ -12702,7 +12705,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44593</v>
       </c>
@@ -12726,7 +12729,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44621</v>
       </c>
@@ -12746,7 +12749,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>44652</v>
       </c>
@@ -12770,7 +12773,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>79</v>
@@ -12792,7 +12795,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>44682</v>
       </c>
@@ -12812,7 +12815,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>44713</v>
       </c>
@@ -12832,7 +12835,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44743</v>
       </c>
@@ -12852,7 +12855,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44774</v>
       </c>
@@ -12872,7 +12875,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44805</v>
       </c>
@@ -12892,7 +12895,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44835</v>
       </c>
@@ -12918,7 +12921,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44866</v>
       </c>
@@ -12938,7 +12941,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44896</v>
       </c>
@@ -12953,7 +12956,7 @@
       </c>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="42">
+      <c r="G513" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -12964,7 +12967,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="48" t="s">
         <v>284</v>
       </c>
@@ -12982,7 +12985,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44927</v>
       </c>
@@ -13002,7 +13005,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44958</v>
       </c>
@@ -13026,7 +13029,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44986</v>
       </c>
@@ -13046,7 +13049,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>45017</v>
       </c>
@@ -13070,20 +13073,22 @@
         <v>286</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>45047</v>
       </c>
       <c r="B519" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C519" s="13"/>
+      <c r="C519" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D519" s="39"/>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G519" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H519" s="39">
         <v>3</v>
@@ -13094,27 +13099,31 @@
         <v>287</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A520" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B520" s="20"/>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A520" s="40"/>
+      <c r="B520" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C520" s="13"/>
       <c r="D520" s="39"/>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
-      <c r="G520" s="42" t="str">
+      <c r="G520" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H520" s="39"/>
+      <c r="H520" s="39">
+        <v>2</v>
+      </c>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20"/>
-    </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K520" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13130,16 +13139,16 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
+      <c r="G522" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -13148,16 +13157,16 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="42" t="str">
+      <c r="G523" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -13166,9 +13175,9 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13184,9 +13193,9 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13202,9 +13211,9 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13220,9 +13229,9 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13238,9 +13247,9 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13256,9 +13265,9 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13274,9 +13283,9 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13292,9 +13301,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13310,9 +13319,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13328,9 +13337,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13346,9 +13355,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13364,9 +13373,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13382,9 +13391,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13400,9 +13409,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13418,9 +13427,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13436,9 +13445,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13454,9 +13463,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13472,9 +13481,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13490,9 +13499,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13508,9 +13517,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13526,9 +13535,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13544,9 +13553,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13562,9 +13571,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13580,9 +13589,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13598,9 +13607,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13616,9 +13625,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13634,9 +13643,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13652,9 +13661,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13670,9 +13679,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13688,9 +13697,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13706,9 +13715,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13724,9 +13733,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -13742,9 +13751,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -13760,9 +13769,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -13778,9 +13787,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -13796,9 +13805,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -13814,9 +13823,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -13832,9 +13841,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -13850,9 +13859,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -13868,9 +13877,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -13886,9 +13895,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -13904,9 +13913,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -13922,9 +13931,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -13940,9 +13949,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -13958,9 +13967,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -13976,9 +13985,9 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -13994,9 +14003,9 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -14012,9 +14021,9 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -14030,8 +14039,10 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A572" s="40">
+        <v>46631</v>
+      </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
       <c r="D572" s="39"/>
@@ -14046,7 +14057,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14062,7 +14073,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14078,7 +14089,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14094,7 +14105,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14110,7 +14121,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14126,7 +14137,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14142,7 +14153,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14158,7 +14169,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14174,7 +14185,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14190,7 +14201,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14206,7 +14217,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14222,7 +14233,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14238,7 +14249,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14254,21 +14265,37 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="41"/>
-      <c r="B586" s="15"/>
-      <c r="C586" s="42"/>
-      <c r="D586" s="43"/>
-      <c r="E586" s="51"/>
-      <c r="F586" s="15"/>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A586" s="40"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
       <c r="G586" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H586" s="43"/>
-      <c r="I586" s="51"/>
-      <c r="J586" s="12"/>
-      <c r="K586" s="15"/>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="20"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A587" s="41"/>
+      <c r="B587" s="15"/>
+      <c r="C587" s="42"/>
+      <c r="D587" s="43"/>
+      <c r="E587" s="51"/>
+      <c r="F587" s="15"/>
+      <c r="G587" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="43"/>
+      <c r="I587" s="51"/>
+      <c r="J587" s="12"/>
+      <c r="K587" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14285,10 +14312,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14311,28 +14338,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -14345,7 +14372,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14374,7 +14401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.54200000000000004</v>
       </c>
@@ -14404,17 +14431,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14435,7 +14462,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14462,7 +14489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14488,7 +14515,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14514,7 +14541,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14540,7 +14567,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14566,7 +14593,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14592,7 +14619,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14618,7 +14645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14644,7 +14671,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14664,7 +14691,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14684,7 +14711,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14704,7 +14731,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14725,7 +14752,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14746,7 +14773,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14767,7 +14794,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14788,7 +14815,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14809,7 +14836,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14830,7 +14857,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14851,7 +14878,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14872,7 +14899,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14893,7 +14920,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14914,7 +14941,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14935,7 +14962,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14956,7 +14983,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14977,7 +15004,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14998,7 +15025,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15019,7 +15046,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15040,7 +15067,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15061,7 +15088,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15082,7 +15109,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15103,7 +15130,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15124,7 +15151,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15133,7 +15160,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15142,7 +15169,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15151,7 +15178,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15160,7 +15187,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15169,7 +15196,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15178,7 +15205,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15187,7 +15214,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15196,7 +15223,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15205,7 +15232,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15214,7 +15241,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15223,7 +15250,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15232,7 +15259,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15241,7 +15268,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15250,7 +15277,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15259,7 +15286,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15268,7 +15295,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15277,7 +15304,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15286,7 +15313,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15295,7 +15322,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15304,7 +15331,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15313,7 +15340,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15322,7 +15349,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15331,7 +15358,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15340,7 +15367,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15349,7 +15376,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15358,7 +15385,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15367,7 +15394,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15376,7 +15403,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15385,7 +15412,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/JAVIER, CARMELITA M..xlsx
+++ b/REGULAR/JAVIER, CARMELITA M..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E490D-6986-42B7-898E-4202DC5EF2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="290">
   <si>
     <t>PERIOD</t>
   </si>
@@ -909,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1601,26 +1600,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K587" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K587" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K587" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K587"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1927,34 +1926,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A518"/>
+      <pane ySplit="4425" topLeftCell="A512" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="C520" sqref="C520"/>
+      <selection pane="bottomLeft" activeCell="K522" sqref="K522"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1975,7 +1974,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1993,7 +1992,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2015,7 +2014,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2023,7 +2022,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2036,7 +2035,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2053,7 +2052,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2097,7 +2096,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.388000000000062</v>
+        <v>64.638000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2107,12 +2106,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>76.499999999999972</v>
+        <v>77.749999999999972</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>55</v>
       </c>
@@ -2134,7 +2133,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35582</v>
       </c>
@@ -2154,7 +2153,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35612</v>
       </c>
@@ -2174,7 +2173,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35643</v>
       </c>
@@ -2194,7 +2193,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35674</v>
       </c>
@@ -2214,7 +2213,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35704</v>
       </c>
@@ -2234,7 +2233,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35735</v>
       </c>
@@ -2254,7 +2253,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35765</v>
       </c>
@@ -2274,7 +2273,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -2292,7 +2291,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35796</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>36176</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35827</v>
       </c>
@@ -2338,7 +2337,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35855</v>
       </c>
@@ -2358,7 +2357,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35886</v>
       </c>
@@ -2378,7 +2377,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35916</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>46</v>
@@ -2423,7 +2422,7 @@
         <v>36295</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35947</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>36312</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35977</v>
       </c>
@@ -2469,7 +2468,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36008</v>
       </c>
@@ -2491,7 +2490,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36023</v>
       </c>
@@ -2511,7 +2510,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36039</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>50</v>
@@ -2556,7 +2555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36069</v>
       </c>
@@ -2580,7 +2579,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36100</v>
       </c>
@@ -2600,7 +2599,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36130</v>
       </c>
@@ -2624,7 +2623,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>45</v>
       </c>
@@ -2642,7 +2641,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36161</v>
       </c>
@@ -2662,7 +2661,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36192</v>
       </c>
@@ -2682,7 +2681,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36220</v>
       </c>
@@ -2702,7 +2701,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36251</v>
       </c>
@@ -2722,7 +2721,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36281</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -2767,7 +2766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>57</v>
@@ -2786,7 +2785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36312</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>36331</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36342</v>
       </c>
@@ -2832,7 +2831,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36373</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>36393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36404</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>36438</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -2903,7 +2902,7 @@
         <v>36443</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36434</v>
       </c>
@@ -2923,7 +2922,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36465</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -2968,7 +2967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36495</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>62</v>
@@ -3014,7 +3013,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>66</v>
       </c>
@@ -3032,7 +3031,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36526</v>
       </c>
@@ -3052,7 +3051,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36557</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>36561</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>47</v>
@@ -3097,7 +3096,7 @@
         <v>36563</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36586</v>
       </c>
@@ -3123,7 +3122,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36617</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>67</v>
@@ -3168,7 +3167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36647</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>68</v>
@@ -3213,7 +3212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36678</v>
       </c>
@@ -3233,7 +3232,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36708</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>72</v>
@@ -3276,7 +3275,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36739</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>36747</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36770</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36800</v>
       </c>
@@ -3348,7 +3347,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36831</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36861</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>76</v>
       </c>
@@ -3418,7 +3417,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36892</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>49</v>
@@ -3463,7 +3462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36923</v>
       </c>
@@ -3483,7 +3482,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36951</v>
       </c>
@@ -3503,7 +3502,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36982</v>
       </c>
@@ -3523,7 +3522,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37012</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>79</v>
@@ -3568,7 +3567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>80</v>
@@ -3585,7 +3584,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37043</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37073</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>82</v>
@@ -3656,7 +3655,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37104</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37135</v>
       </c>
@@ -3702,7 +3701,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37165</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>37192</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37196</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37226</v>
       </c>
@@ -3774,7 +3773,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -3792,7 +3791,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37257</v>
       </c>
@@ -3816,7 +3815,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37288</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37316</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37347</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>37362</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37377</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37408</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37438</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
@@ -3983,7 +3982,7 @@
         <v>37467</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37469</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37500</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37530</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>37562</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37561</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>37583</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37591</v>
       </c>
@@ -4107,7 +4106,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>101</v>
       </c>
@@ -4125,7 +4124,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37622</v>
       </c>
@@ -4145,7 +4144,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37653</v>
       </c>
@@ -4165,7 +4164,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37681</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>37693</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4210,7 +4209,7 @@
         <v>37716</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37712</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>37727</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37742</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>37744</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37773</v>
       </c>
@@ -4282,7 +4281,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37803</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -4327,7 +4326,7 @@
         <v>37824</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>56</v>
@@ -4346,7 +4345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37834</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37865</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>47</v>
@@ -4417,7 +4416,7 @@
         <v>37888</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37895</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4462,7 +4461,7 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37926</v>
       </c>
@@ -4482,7 +4481,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37956</v>
       </c>
@@ -4502,7 +4501,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>106</v>
       </c>
@@ -4520,7 +4519,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37987</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38018</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38047</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>111</v>
@@ -4619,7 +4618,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38078</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>113</v>
@@ -4664,7 +4663,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38108</v>
       </c>
@@ -4684,7 +4683,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38139</v>
       </c>
@@ -4704,7 +4703,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38169</v>
       </c>
@@ -4724,7 +4723,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38200</v>
       </c>
@@ -4744,7 +4743,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38231</v>
       </c>
@@ -4764,7 +4763,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38261</v>
       </c>
@@ -4784,7 +4783,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38292</v>
       </c>
@@ -4804,7 +4803,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38322</v>
       </c>
@@ -4824,7 +4823,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>117</v>
       </c>
@@ -4842,7 +4841,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38353</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>118</v>
@@ -4883,7 +4882,7 @@
         <v>38383</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38384</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>38399</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38412</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>120</v>
@@ -4954,7 +4953,7 @@
         <v>38443</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>121</v>
@@ -4971,7 +4970,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38443</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>120</v>
@@ -5016,7 +5015,7 @@
         <v>38469</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -5035,7 +5034,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -5054,7 +5053,7 @@
         <v>38470</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38473</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38504</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -5125,7 +5124,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38534</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>52</v>
@@ -5170,7 +5169,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38565</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38596</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>120</v>
@@ -5241,7 +5240,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>46</v>
@@ -5260,7 +5259,7 @@
         <v>38618</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38626</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38657</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>127</v>
@@ -5331,7 +5330,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38687</v>
       </c>
@@ -5351,7 +5350,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>131</v>
       </c>
@@ -5369,7 +5368,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38718</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>81</v>
@@ -5414,7 +5413,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>132</v>
@@ -5431,7 +5430,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38749</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -5474,7 +5473,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38777</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>38797</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>46</v>
@@ -5517,7 +5516,7 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38808</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>38824</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38838</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>56</v>
@@ -5588,7 +5587,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>136</v>
@@ -5605,7 +5604,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38869</v>
       </c>
@@ -5627,7 +5626,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38899</v>
       </c>
@@ -5651,7 +5650,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38930</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5697,7 +5696,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38961</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>137</v>
@@ -5743,7 +5742,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38991</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>46</v>
@@ -5793,7 +5792,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39022</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>39076</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>138</v>
@@ -5839,7 +5838,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39052</v>
       </c>
@@ -5863,7 +5862,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>144</v>
       </c>
@@ -5881,7 +5880,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39083</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39114</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>39116</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>118</v>
@@ -5948,7 +5947,7 @@
         <v>39119</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39142</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39173</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39203</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>118</v>
@@ -6047,7 +6046,7 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39234</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39264</v>
       </c>
@@ -6093,7 +6092,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39295</v>
       </c>
@@ -6119,7 +6118,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>52</v>
@@ -6138,7 +6137,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39326</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39356</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39387</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>46</v>
@@ -6235,7 +6234,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39417</v>
       </c>
@@ -6255,7 +6254,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
         <v>150</v>
       </c>
@@ -6273,7 +6272,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39448</v>
       </c>
@@ -6293,7 +6292,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39479</v>
       </c>
@@ -6313,7 +6312,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39508</v>
       </c>
@@ -6333,7 +6332,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39539</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>118</v>
@@ -6374,7 +6373,7 @@
         <v>39554</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39569</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -6417,7 +6416,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>39600</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>39619</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39630</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39661</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>39692</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39722</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39753</v>
       </c>
@@ -6565,7 +6564,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39783</v>
       </c>
@@ -6585,7 +6584,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="48" t="s">
         <v>155</v>
       </c>
@@ -6603,7 +6602,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39814</v>
       </c>
@@ -6623,7 +6622,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39845</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>39873</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39904</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>157</v>
@@ -6716,7 +6715,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39934</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>39983</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>158</v>
@@ -6757,7 +6756,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39965</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>39973</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>159</v>
@@ -6800,7 +6799,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39995</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -6845,7 +6844,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>46</v>
@@ -6864,7 +6863,7 @@
         <v>40017</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>46</v>
@@ -6883,7 +6882,7 @@
         <v>40022</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -6902,7 +6901,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>160</v>
@@ -6919,7 +6918,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40026</v>
       </c>
@@ -6943,7 +6942,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40057</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>166</v>
@@ -6986,7 +6985,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40087</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>40092</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>67</v>
@@ -7031,7 +7030,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>46</v>
@@ -7050,7 +7049,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7067,7 +7066,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40118</v>
       </c>
@@ -7093,7 +7092,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>168</v>
@@ -7110,7 +7109,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40148</v>
       </c>
@@ -7134,7 +7133,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>172</v>
       </c>
@@ -7152,7 +7151,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>40179</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>173</v>
@@ -7195,7 +7194,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40210</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>40235</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>174</v>
@@ -7236,7 +7235,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40238</v>
       </c>
@@ -7262,7 +7261,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>46</v>
@@ -7281,7 +7280,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>118</v>
@@ -7298,7 +7297,7 @@
         <v>40279</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>175</v>
@@ -7317,7 +7316,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>40269</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>46</v>
@@ -7362,7 +7361,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>178</v>
@@ -7379,7 +7378,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="49"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>40299</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>40324</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>46</v>
@@ -7424,7 +7423,7 @@
         <v>40317</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>46</v>
@@ -7443,7 +7442,7 @@
         <v>40325</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>179</v>
@@ -7460,7 +7459,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40330</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -7505,7 +7504,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>46</v>
@@ -7524,7 +7523,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>118</v>
@@ -7541,7 +7540,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>46</v>
@@ -7560,7 +7559,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>180</v>
@@ -7577,7 +7576,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40360</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>181</v>
@@ -7620,7 +7619,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40391</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>46</v>
@@ -7665,7 +7664,7 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>120</v>
@@ -7684,7 +7683,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>182</v>
@@ -7701,7 +7700,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40422</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>183</v>
@@ -7744,7 +7743,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40452</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -7789,7 +7788,7 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>185</v>
@@ -7806,7 +7805,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40483</v>
       </c>
@@ -7832,7 +7831,7 @@
         <v>40499</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>186</v>
@@ -7849,7 +7848,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40513</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>40533</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>46</v>
@@ -7897,7 +7896,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>187</v>
@@ -7917,7 +7916,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="48" t="s">
         <v>188</v>
       </c>
@@ -7935,7 +7934,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40544</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>132</v>
@@ -7976,7 +7975,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40575</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>120</v>
@@ -8021,7 +8020,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>132</v>
@@ -8038,7 +8037,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40603</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>189</v>
@@ -8079,7 +8078,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>40634</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>190</v>
@@ -8122,7 +8121,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40664</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>50</v>
@@ -8167,7 +8166,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>118</v>
@@ -8184,7 +8183,7 @@
         <v>40715</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>192</v>
@@ -8201,7 +8200,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>40695</v>
       </c>
@@ -8225,7 +8224,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40725</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>120</v>
@@ -8270,7 +8269,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>50</v>
@@ -8289,7 +8288,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>194</v>
@@ -8306,7 +8305,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40756</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40787</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>118</v>
@@ -8375,7 +8374,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>51</v>
@@ -8392,7 +8391,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>40817</v>
       </c>
@@ -8418,7 +8417,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>197</v>
@@ -8435,7 +8434,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>40848</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>40863</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>195</v>
@@ -8478,7 +8477,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40878</v>
       </c>
@@ -8502,7 +8501,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="48" t="s">
         <v>200</v>
       </c>
@@ -8520,7 +8519,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40909</v>
       </c>
@@ -8544,7 +8543,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="49"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>40940</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>118</v>
@@ -8585,7 +8584,7 @@
         <v>41015</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>202</v>
@@ -8602,7 +8601,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="49"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40969</v>
       </c>
@@ -8626,7 +8625,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41000</v>
       </c>
@@ -8650,7 +8649,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41030</v>
       </c>
@@ -8676,7 +8675,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>81</v>
@@ -8695,7 +8694,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>118</v>
@@ -8712,7 +8711,7 @@
         <v>41080</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>205</v>
@@ -8729,7 +8728,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41061</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>206</v>
@@ -8772,7 +8771,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>41091</v>
       </c>
@@ -8798,7 +8797,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>207</v>
@@ -8815,7 +8814,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41122</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>41131</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>208</v>
@@ -8858,7 +8857,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>41153</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>50</v>
@@ -8903,7 +8902,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>209</v>
@@ -8920,7 +8919,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>41183</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>46</v>
@@ -8965,7 +8964,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>210</v>
@@ -8982,7 +8981,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41214</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>41242</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>46</v>
@@ -9027,7 +9026,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>214</v>
@@ -9044,7 +9043,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="49"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>41244</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -9092,7 +9091,7 @@
         <v>41271</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>215</v>
@@ -9112,7 +9111,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>217</v>
       </c>
@@ -9130,7 +9129,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41275</v>
       </c>
@@ -9154,7 +9153,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41306</v>
       </c>
@@ -9178,7 +9177,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>46</v>
@@ -9197,7 +9196,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>46</v>
@@ -9216,7 +9215,7 @@
         <v>41338</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41334</v>
       </c>
@@ -9242,7 +9241,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>118</v>
@@ -9259,7 +9258,7 @@
         <v>41380</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41365</v>
       </c>
@@ -9283,7 +9282,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>41395</v>
       </c>
@@ -9309,7 +9308,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>118</v>
@@ -9326,7 +9325,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>220</v>
@@ -9343,7 +9342,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>41426</v>
       </c>
@@ -9367,7 +9366,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>41456</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41487</v>
       </c>
@@ -9419,7 +9418,7 @@
         <v>41491</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>120</v>
@@ -9438,7 +9437,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -9457,7 +9456,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41518</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>81</v>
@@ -9502,7 +9501,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41548</v>
       </c>
@@ -9526,7 +9525,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>81</v>
@@ -9545,7 +9544,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>41579</v>
       </c>
@@ -9571,7 +9570,7 @@
         <v>41611</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>120</v>
@@ -9590,7 +9589,7 @@
         <v>41603</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>120</v>
@@ -9607,7 +9606,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>41609</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>120</v>
@@ -9655,7 +9654,7 @@
         <v>41635</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>46</v>
@@ -9677,7 +9676,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="48" t="s">
         <v>226</v>
       </c>
@@ -9695,7 +9694,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41640</v>
       </c>
@@ -9719,7 +9718,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41671</v>
       </c>
@@ -9743,7 +9742,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41699</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>118</v>
@@ -9786,7 +9785,7 @@
         <v>41745</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>120</v>
@@ -9805,7 +9804,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>221</v>
@@ -9822,7 +9821,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>41730</v>
       </c>
@@ -9846,7 +9845,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>41760</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>118</v>
@@ -9889,7 +9888,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>228</v>
@@ -9906,7 +9905,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41791</v>
       </c>
@@ -9930,7 +9929,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>41821</v>
       </c>
@@ -9954,7 +9953,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>41852</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>231</v>
@@ -9997,7 +9996,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41883</v>
       </c>
@@ -10021,7 +10020,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41913</v>
       </c>
@@ -10047,7 +10046,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>46</v>
@@ -10066,7 +10065,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>233</v>
@@ -10083,7 +10082,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41944</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>234</v>
@@ -10126,7 +10125,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41974</v>
       </c>
@@ -10150,7 +10149,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="48" t="s">
         <v>237</v>
       </c>
@@ -10168,7 +10167,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42005</v>
       </c>
@@ -10192,7 +10191,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42036</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>118</v>
@@ -10235,7 +10234,7 @@
         <v>42062</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>238</v>
@@ -10252,7 +10251,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>42064</v>
       </c>
@@ -10276,7 +10275,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>42095</v>
       </c>
@@ -10300,7 +10299,7 @@
         <v>42110</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>46</v>
@@ -10319,7 +10318,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>50</v>
@@ -10338,7 +10337,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>67</v>
@@ -10357,7 +10356,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>241</v>
@@ -10374,7 +10373,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>42125</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>118</v>
@@ -10417,7 +10416,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>240</v>
@@ -10434,7 +10433,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>42156</v>
       </c>
@@ -10458,7 +10457,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>42186</v>
       </c>
@@ -10482,7 +10481,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>42217</v>
       </c>
@@ -10502,7 +10501,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>42248</v>
       </c>
@@ -10526,7 +10525,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>42278</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>132</v>
@@ -10569,7 +10568,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>42309</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>42314</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>42339</v>
       </c>
@@ -10619,7 +10618,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="48" t="s">
         <v>248</v>
       </c>
@@ -10637,7 +10636,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42370</v>
       </c>
@@ -10657,7 +10656,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>42401</v>
       </c>
@@ -10681,7 +10680,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42430</v>
       </c>
@@ -10701,7 +10700,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42461</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>118</v>
@@ -10744,7 +10743,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>132</v>
@@ -10761,7 +10760,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42491</v>
       </c>
@@ -10781,7 +10780,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>42522</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>47</v>
@@ -10824,7 +10823,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42552</v>
       </c>
@@ -10848,7 +10847,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42583</v>
       </c>
@@ -10874,7 +10873,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>132</v>
@@ -10891,7 +10890,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42614</v>
       </c>
@@ -10915,7 +10914,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>50</v>
@@ -10934,7 +10933,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42644</v>
       </c>
@@ -10960,7 +10959,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>132</v>
@@ -10977,7 +10976,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42675</v>
       </c>
@@ -10997,7 +10996,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42705</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="48" t="s">
         <v>253</v>
       </c>
@@ -11041,7 +11040,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42736</v>
       </c>
@@ -11061,7 +11060,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42767</v>
       </c>
@@ -11087,7 +11086,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>254</v>
@@ -11104,7 +11103,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>255</v>
@@ -11123,7 +11122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>132</v>
@@ -11140,7 +11139,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42795</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>47</v>
@@ -11185,7 +11184,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42826</v>
       </c>
@@ -11205,7 +11204,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>42856</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42887</v>
       </c>
@@ -11251,7 +11250,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>42917</v>
       </c>
@@ -11271,7 +11270,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42948</v>
       </c>
@@ -11297,7 +11296,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42979</v>
       </c>
@@ -11317,7 +11316,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43009</v>
       </c>
@@ -11343,7 +11342,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43040</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43070</v>
       </c>
@@ -11389,7 +11388,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
         <v>261</v>
       </c>
@@ -11407,7 +11406,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43101</v>
       </c>
@@ -11427,7 +11426,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43132</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>67</v>
@@ -11472,7 +11471,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43160</v>
       </c>
@@ -11492,7 +11491,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43191</v>
       </c>
@@ -11516,7 +11515,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43221</v>
       </c>
@@ -11536,7 +11535,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43252</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>47</v>
@@ -11581,7 +11580,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>47</v>
@@ -11600,7 +11599,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>43282</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43313</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43344</v>
       </c>
@@ -11672,7 +11671,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43374</v>
       </c>
@@ -11698,7 +11697,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>118</v>
@@ -11715,7 +11714,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43405</v>
       </c>
@@ -11735,7 +11734,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43435</v>
       </c>
@@ -11755,7 +11754,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="48" t="s">
         <v>268</v>
       </c>
@@ -11773,7 +11772,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43466</v>
       </c>
@@ -11793,7 +11792,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43497</v>
       </c>
@@ -11813,7 +11812,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43525</v>
       </c>
@@ -11833,7 +11832,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43556</v>
       </c>
@@ -11859,7 +11858,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>118</v>
@@ -11876,7 +11875,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>118</v>
@@ -11893,7 +11892,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43586</v>
       </c>
@@ -11919,7 +11918,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43617</v>
       </c>
@@ -11939,7 +11938,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43647</v>
       </c>
@@ -11959,7 +11958,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43678</v>
       </c>
@@ -11979,7 +11978,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43709</v>
       </c>
@@ -11999,7 +11998,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43739</v>
       </c>
@@ -12025,7 +12024,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>73</v>
@@ -12044,7 +12043,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43770</v>
       </c>
@@ -12064,7 +12063,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43800</v>
       </c>
@@ -12084,7 +12083,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="48" t="s">
         <v>273</v>
       </c>
@@ -12102,7 +12101,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43831</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>275</v>
@@ -12143,7 +12142,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43862</v>
       </c>
@@ -12163,7 +12162,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43891</v>
       </c>
@@ -12183,7 +12182,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43922</v>
       </c>
@@ -12203,7 +12202,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43952</v>
       </c>
@@ -12223,7 +12222,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43983</v>
       </c>
@@ -12243,7 +12242,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44013</v>
       </c>
@@ -12263,7 +12262,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44044</v>
       </c>
@@ -12283,7 +12282,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44075</v>
       </c>
@@ -12303,7 +12302,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44105</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44136</v>
       </c>
@@ -12347,7 +12346,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44166</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>277</v>
@@ -12393,7 +12392,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
         <v>280</v>
       </c>
@@ -12411,7 +12410,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44197</v>
       </c>
@@ -12435,7 +12434,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44228</v>
       </c>
@@ -12455,7 +12454,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44256</v>
       </c>
@@ -12475,7 +12474,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44287</v>
       </c>
@@ -12495,7 +12494,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44317</v>
       </c>
@@ -12515,7 +12514,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44348</v>
       </c>
@@ -12535,7 +12534,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44378</v>
       </c>
@@ -12555,7 +12554,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44409</v>
       </c>
@@ -12575,7 +12574,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44440</v>
       </c>
@@ -12595,7 +12594,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44470</v>
       </c>
@@ -12621,7 +12620,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44501</v>
       </c>
@@ -12641,7 +12640,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44531</v>
       </c>
@@ -12667,7 +12666,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
         <v>282</v>
       </c>
@@ -12685,7 +12684,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44562</v>
       </c>
@@ -12705,7 +12704,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44593</v>
       </c>
@@ -12729,7 +12728,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44621</v>
       </c>
@@ -12749,7 +12748,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44652</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>79</v>
@@ -12795,7 +12794,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44682</v>
       </c>
@@ -12815,7 +12814,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44713</v>
       </c>
@@ -12835,7 +12834,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44743</v>
       </c>
@@ -12855,7 +12854,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44774</v>
       </c>
@@ -12875,7 +12874,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44805</v>
       </c>
@@ -12895,7 +12894,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44835</v>
       </c>
@@ -12921,7 +12920,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44866</v>
       </c>
@@ -12941,7 +12940,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44896</v>
       </c>
@@ -12967,7 +12966,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
         <v>284</v>
       </c>
@@ -12985,7 +12984,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44927</v>
       </c>
@@ -13005,7 +13004,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44958</v>
       </c>
@@ -13029,7 +13028,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44986</v>
       </c>
@@ -13049,7 +13048,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>45017</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>45047</v>
       </c>
@@ -13099,7 +13098,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>50</v>
@@ -13121,29 +13120,33 @@
         <v>288</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>45078</v>
       </c>
       <c r="B521" s="20"/>
-      <c r="C521" s="13"/>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G521" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>45108</v>
       </c>
-      <c r="B522" s="20"/>
+      <c r="B522" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C522" s="13"/>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
@@ -13155,9 +13158,11 @@
       <c r="H522" s="39"/>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20"/>
-    </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K522" s="49">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45139</v>
       </c>
@@ -13175,7 +13180,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45170</v>
       </c>
@@ -13193,7 +13198,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45200</v>
       </c>
@@ -13211,7 +13216,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45231</v>
       </c>
@@ -13229,7 +13234,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45261</v>
       </c>
@@ -13247,7 +13252,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45292</v>
       </c>
@@ -13265,7 +13270,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45323</v>
       </c>
@@ -13283,7 +13288,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45352</v>
       </c>
@@ -13301,7 +13306,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45383</v>
       </c>
@@ -13319,7 +13324,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45413</v>
       </c>
@@ -13337,7 +13342,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45444</v>
       </c>
@@ -13355,7 +13360,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45474</v>
       </c>
@@ -13373,7 +13378,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45505</v>
       </c>
@@ -13391,7 +13396,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45536</v>
       </c>
@@ -13409,7 +13414,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45566</v>
       </c>
@@ -13427,7 +13432,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45597</v>
       </c>
@@ -13445,7 +13450,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45627</v>
       </c>
@@ -13463,7 +13468,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>45658</v>
       </c>
@@ -13481,7 +13486,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>45689</v>
       </c>
@@ -13499,7 +13504,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45717</v>
       </c>
@@ -13517,7 +13522,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45748</v>
       </c>
@@ -13535,7 +13540,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45778</v>
       </c>
@@ -13553,7 +13558,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45809</v>
       </c>
@@ -13571,7 +13576,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45839</v>
       </c>
@@ -13589,7 +13594,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45870</v>
       </c>
@@ -13607,7 +13612,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45901</v>
       </c>
@@ -13625,7 +13630,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45931</v>
       </c>
@@ -13643,7 +13648,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45962</v>
       </c>
@@ -13661,7 +13666,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45992</v>
       </c>
@@ -13679,7 +13684,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>46023</v>
       </c>
@@ -13697,7 +13702,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>46054</v>
       </c>
@@ -13715,7 +13720,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>46082</v>
       </c>
@@ -13733,7 +13738,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>46113</v>
       </c>
@@ -13751,7 +13756,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>46143</v>
       </c>
@@ -13769,7 +13774,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>46174</v>
       </c>
@@ -13787,7 +13792,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>46204</v>
       </c>
@@ -13805,7 +13810,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>46235</v>
       </c>
@@ -13823,7 +13828,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>46266</v>
       </c>
@@ -13841,7 +13846,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>46296</v>
       </c>
@@ -13859,7 +13864,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>46327</v>
       </c>
@@ -13877,7 +13882,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>46357</v>
       </c>
@@ -13895,7 +13900,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>46388</v>
       </c>
@@ -13913,7 +13918,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>46419</v>
       </c>
@@ -13931,7 +13936,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>46447</v>
       </c>
@@ -13949,7 +13954,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>46478</v>
       </c>
@@ -13967,7 +13972,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>46508</v>
       </c>
@@ -13985,7 +13990,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>46539</v>
       </c>
@@ -14003,7 +14008,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>46569</v>
       </c>
@@ -14021,7 +14026,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>46600</v>
       </c>
@@ -14039,7 +14044,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>46631</v>
       </c>
@@ -14057,7 +14062,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14073,7 +14078,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14089,7 +14094,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14105,7 +14110,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14121,7 +14126,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14137,7 +14142,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14153,7 +14158,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14169,7 +14174,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14185,7 +14190,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14201,7 +14206,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14217,7 +14222,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14233,7 +14238,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14249,7 +14254,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14265,7 +14270,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14281,7 +14286,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="41"/>
       <c r="B587" s="15"/>
       <c r="C587" s="42"/>
@@ -14312,10 +14317,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14338,28 +14343,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -14372,7 +14377,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14401,7 +14406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.54200000000000004</v>
       </c>
@@ -14431,17 +14436,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14462,7 +14467,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14489,7 +14494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14515,7 +14520,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14541,7 +14546,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14567,7 +14572,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14593,7 +14598,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14619,7 +14624,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14645,7 +14650,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14671,7 +14676,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14691,7 +14696,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14711,7 +14716,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14731,7 +14736,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14752,7 +14757,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14773,7 +14778,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14794,7 +14799,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14815,7 +14820,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14836,7 +14841,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14857,7 +14862,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14878,7 +14883,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14899,7 +14904,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14920,7 +14925,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14941,7 +14946,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14962,7 +14967,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14983,7 +14988,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15004,7 +15009,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15025,7 +15030,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15046,7 +15051,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15067,7 +15072,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15088,7 +15093,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15109,7 +15114,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15130,7 +15135,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15151,7 +15156,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15160,7 +15165,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15169,7 +15174,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15178,7 +15183,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15187,7 +15192,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15196,7 +15201,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15205,7 +15210,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15214,7 +15219,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15223,7 +15228,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15232,7 +15237,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15241,7 +15246,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15250,7 +15255,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15259,7 +15264,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15268,7 +15273,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15277,7 +15282,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15286,7 +15291,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15295,7 +15300,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15304,7 +15309,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15313,7 +15318,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15322,7 +15327,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15331,7 +15336,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15340,7 +15345,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15349,7 +15354,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15358,7 +15363,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15367,7 +15372,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15376,7 +15381,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15385,7 +15390,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15394,7 +15399,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15403,7 +15408,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15412,7 +15417,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
